--- a/biology/Zoologie/Cephalaspididae/Cephalaspididae.xlsx
+++ b/biology/Zoologie/Cephalaspididae/Cephalaspididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cephalaspididae sont une famille fossile de poissons sans mâchoires de l'ordre également éteint des Cephalaspidiformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite en 1861 par le paléontologue britannique Thomas Henry Huxley. Cephalaspis est le genre type[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite en 1861 par le paléontologue britannique Thomas Henry Huxley. Cephalaspis est le genre type.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (23 septembre 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (23 septembre 2023) :
 † Auchenaspis Egerton, 1857
 † Cephalaspis Agassiz, 1835
 † Eucephalaspis Lankester, 1870
@@ -578,17 +596,17 @@
 † Hemicyclaspis Lankester, 1870
 † Procephalaspis Denison, 1951
 † Thyestes Eichwald, 1859
-Selon l'IRMNG  (23 septembre 2023)[3] :
+Selon l'IRMNG  (23 septembre 2023) :
 † Auchenaspis Egerton, 1857
 † Cephalaspis Agassiz, 1835
 † Procephalaspis Denison, 1951
 † Thyestes Eichwald, 1859
 † Eucephalaspis Lankester in Powrie, 1870 (statut incertain)
-Selon la Paleobiology Database                   (23 septembre 2023)[4] :
+Selon la Paleobiology Database                   (23 septembre 2023) :
 † Cephalaspis Agassiz 1835
 † Didymaspis Lankester 1867
 † Eukeraspis Lankester 1870
-Selon les collections du Muséum national d'Histoire naturelle  (23 septembre 2023)[5] :
+Selon les collections du Muséum national d'Histoire naturelle  (23 septembre 2023) :
 † Cephalaspis
 † Hildenaspis
 † Parameteoraspis
@@ -620,7 +638,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) T. H. Huxley, « Preliminary essay upon the systematic arrangement of the fishes of the Devonian Epoch », Memoirs of the Geological Survey of Great Britain, decade 10, vol. 23,‎ 1861, p. 1-40</t>
         </is>
